--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-897544.2442245472</v>
+        <v>-899431.8257409491</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>334333.2260017408</v>
+        <v>255656.3029549662</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>118.9026972905754</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>184.5022140129027</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -795,7 +795,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>63.29996590066595</v>
+        <v>83.58354151325305</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>341.462295564786</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>76.15437082176213</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,25 +1057,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>154.8229679689706</v>
       </c>
       <c r="V7" t="n">
-        <v>78.13981344678575</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>271.3694897020898</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>365.8451591480794</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>101.4850921198533</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>157.9610008998253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.30966977322426</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182141</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>39.56258098270862</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>130.1103494143061</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>87.90024861273426</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>64.35126176470081</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>203.931197535992</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,19 +2242,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>93.69586997053518</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>184.6017293039179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2333,10 +2333,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,16 +2476,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>85.1622926248739</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>96.2419355340499</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>41.66054700195316</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>85.1648214130648</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>93.71057173897896</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571483</v>
+        <v>55.21598883571479</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523564</v>
+        <v>54.7610957752356</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>119.7395168926601</v>
+        <v>31.42297447768654</v>
       </c>
       <c r="W31" t="n">
         <v>231.3197417080338</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463134</v>
@@ -3241,7 +3241,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.105462268936</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
         <v>184.0057531941874</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634821</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463134</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
         <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463134</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898724</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857176</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692858</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329065</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373699</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789553</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463137</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
-        <v>153.4156709287487</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>157.5777652593966</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1299.526533804879</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="C2" t="n">
-        <v>1299.526533804879</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D2" t="n">
-        <v>941.2608351981287</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,10 +4328,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224074</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2345.839179225941</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2092.077393864032</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>1761.014506520462</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>1408.245851250347</v>
       </c>
       <c r="X2" t="n">
-        <v>1485.892406545185</v>
+        <v>1408.245851250347</v>
       </c>
       <c r="Y2" t="n">
-        <v>1299.526533804879</v>
+        <v>1018.106519274536</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,22 +4410,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4443,7 +4443,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>407.4645182330357</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C4" t="n">
-        <v>407.4645182330357</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D4" t="n">
-        <v>257.3478788207</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E4" t="n">
-        <v>257.3478788207</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>257.3478788207</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
         <v>99.59950625323012</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>471.4038777286579</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W4" t="n">
-        <v>471.4038777286579</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X4" t="n">
-        <v>471.4038777286579</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y4" t="n">
-        <v>407.4645182330357</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1018.506281012309</v>
+        <v>1550.991915879943</v>
       </c>
       <c r="C5" t="n">
-        <v>649.5437640718976</v>
+        <v>1182.029398939532</v>
       </c>
       <c r="D5" t="n">
-        <v>291.2780654651471</v>
+        <v>823.7637003327811</v>
       </c>
       <c r="E5" t="n">
-        <v>291.2780654651471</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>284.3325647159436</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249201</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X5" t="n">
-        <v>1408.645612988121</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y5" t="n">
-        <v>1018.506281012309</v>
+        <v>1937.591755944065</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4647,40 +4647,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.3478788207</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C7" t="n">
-        <v>257.3478788207</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D7" t="n">
-        <v>257.3478788207</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>257.3478788207</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>336.2769833124028</v>
+        <v>571.7421478741406</v>
       </c>
       <c r="V7" t="n">
-        <v>257.3478788207</v>
+        <v>571.7421478741406</v>
       </c>
       <c r="W7" t="n">
-        <v>257.3478788207</v>
+        <v>571.7421478741406</v>
       </c>
       <c r="X7" t="n">
-        <v>257.3478788207</v>
+        <v>571.7421478741406</v>
       </c>
       <c r="Y7" t="n">
-        <v>257.3478788207</v>
+        <v>350.9495687306105</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2149.375138862102</v>
+        <v>1547.452423968253</v>
       </c>
       <c r="C8" t="n">
-        <v>1780.41262192169</v>
+        <v>1547.452423968253</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1547.452423968253</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1161.664171370009</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>750.6782665804014</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,10 +4820,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520779</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2423.485734520779</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X8" t="n">
-        <v>2423.485734520779</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y8" t="n">
-        <v>2423.485734520779</v>
+        <v>1547.452423968253</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,10 +4890,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>350.0227938960811</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>202.109700313688</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>202.109700313688</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>202.109700313688</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>202.109700313688</v>
       </c>
       <c r="I10" t="n">
         <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>259.1560728187102</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>259.1560728187102</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>259.1560728187102</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="11">
@@ -5018,19 +5018,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5042,22 +5042,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>894.5540770733951</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>1214.889396603097</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N12" t="n">
-        <v>1559.410052240715</v>
+        <v>1953.181607381369</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2201.935021465331</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2384.578499078682</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>711.072954880832</v>
+        <v>604.1452103957603</v>
       </c>
       <c r="C13" t="n">
-        <v>542.1367719529251</v>
+        <v>435.2090274678534</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>285.0923880555159</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>137.1792944731228</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>137.1792944731228</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5200,13 +5200,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V13" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="W13" t="n">
-        <v>985.7136853104472</v>
+        <v>785.793675226</v>
       </c>
       <c r="X13" t="n">
-        <v>985.7136853104472</v>
+        <v>785.793675226</v>
       </c>
       <c r="Y13" t="n">
-        <v>764.9211061669171</v>
+        <v>785.793675226</v>
       </c>
     </row>
     <row r="14">
@@ -5255,19 +5255,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
@@ -5276,25 +5276,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.9563154684962</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C16" t="n">
-        <v>392.0201325405893</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D16" t="n">
         <v>392.0201325405893</v>
@@ -5440,19 +5440,19 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557902</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1367.491675189916</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1367.491675189916</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1078.363036403474</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1078.363036403474</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>788.9458663665135</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X16" t="n">
-        <v>560.9563154684962</v>
+        <v>981.5095496229245</v>
       </c>
       <c r="Y16" t="n">
-        <v>560.9563154684962</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5504,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5595,13 +5595,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>280.6570073165065</v>
+        <v>246.2867756623457</v>
       </c>
       <c r="L18" t="n">
-        <v>894.5540770733951</v>
+        <v>860.1838454192343</v>
       </c>
       <c r="M18" t="n">
-        <v>1214.889396603097</v>
+        <v>1180.519164948936</v>
       </c>
       <c r="N18" t="n">
         <v>1559.410052240715</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>542.1367719529251</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C19" t="n">
         <v>542.1367719529251</v>
@@ -5674,10 +5674,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
         <v>779.063975947119</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1433.914996048104</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1233.994985963656</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1233.994985963656</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>1233.994985963656</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V19" t="n">
-        <v>1233.994985963656</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="W19" t="n">
-        <v>944.5778159266949</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="X19" t="n">
-        <v>944.5778159266949</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="Y19" t="n">
-        <v>723.7852367831648</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="20">
@@ -5750,13 +5750,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5835,19 +5835,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1232.211221195791</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>1552.546540725493</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N21" t="n">
-        <v>1897.067196363111</v>
+        <v>1953.181607381369</v>
       </c>
       <c r="O21" t="n">
-        <v>2145.820610447073</v>
+        <v>2201.935021465331</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>247.6350999123425</v>
+        <v>394.2236783705318</v>
       </c>
       <c r="C22" t="n">
-        <v>247.6350999123425</v>
+        <v>394.2236783705318</v>
       </c>
       <c r="D22" t="n">
-        <v>247.6350999123426</v>
+        <v>244.1070389581961</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123426</v>
+        <v>244.1070389581961</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5935,25 +5935,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V22" t="n">
-        <v>1133.156678913841</v>
+        <v>1093.278864135749</v>
       </c>
       <c r="W22" t="n">
-        <v>843.7395088768803</v>
+        <v>803.8616940987889</v>
       </c>
       <c r="X22" t="n">
-        <v>615.749957978863</v>
+        <v>575.8721432007716</v>
       </c>
       <c r="Y22" t="n">
-        <v>429.2835647425823</v>
+        <v>575.8721432007716</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,37 +5999,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028583</v>
+        <v>280.6570073165065</v>
       </c>
       <c r="L24" t="n">
-        <v>711.1141612171745</v>
+        <v>894.5540770733951</v>
       </c>
       <c r="M24" t="n">
-        <v>1479.482307609636</v>
+        <v>1214.889396603097</v>
       </c>
       <c r="N24" t="n">
-        <v>1824.002963247254</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O24" t="n">
-        <v>2440.930027762787</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>395.2468244550147</v>
+        <v>674.6944526764913</v>
       </c>
       <c r="C25" t="n">
-        <v>395.2468244550147</v>
+        <v>505.7582697485844</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028586</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028586</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028586</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028586</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1009.867621687013</v>
+        <v>1412.893752754999</v>
       </c>
       <c r="V25" t="n">
-        <v>1009.867621687013</v>
+        <v>1412.893752754999</v>
       </c>
       <c r="W25" t="n">
-        <v>720.4504516500522</v>
+        <v>1123.476582718039</v>
       </c>
       <c r="X25" t="n">
-        <v>492.4609007520348</v>
+        <v>895.4870318200215</v>
       </c>
       <c r="Y25" t="n">
-        <v>395.2468244550147</v>
+        <v>674.6944526764913</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,25 +6236,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>894.5540770733951</v>
       </c>
       <c r="M27" t="n">
-        <v>1608.660951743751</v>
+        <v>1214.889396603097</v>
       </c>
       <c r="N27" t="n">
-        <v>1954.109744073479</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O27" t="n">
-        <v>2623.573505376138</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>444.8933943850831</v>
+        <v>434.1014931486229</v>
       </c>
       <c r="C28" t="n">
-        <v>444.8933943850831</v>
+        <v>392.0201325405895</v>
       </c>
       <c r="D28" t="n">
-        <v>294.7767549727473</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028587</v>
@@ -6388,7 +6388,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
@@ -6403,31 +6403,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655739</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W28" t="n">
-        <v>665.6859735286133</v>
+        <v>843.73950887688</v>
       </c>
       <c r="X28" t="n">
-        <v>665.6859735286133</v>
+        <v>615.7499579788627</v>
       </c>
       <c r="Y28" t="n">
-        <v>444.8933943850831</v>
+        <v>615.7499579788627</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,10 +6452,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
@@ -6464,7 +6464,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,7 +6473,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643324</v>
@@ -6482,31 +6482,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6540,22 +6540,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>388.8958536704856</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L30" t="n">
-        <v>618.8589595388348</v>
+        <v>1189.663494389109</v>
       </c>
       <c r="M30" t="n">
-        <v>1149.698165809328</v>
+        <v>1509.99881391881</v>
       </c>
       <c r="N30" t="n">
-        <v>1954.109744073479</v>
+        <v>1854.519469556428</v>
       </c>
       <c r="O30" t="n">
-        <v>2623.573505376138</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P30" t="n">
         <v>2623.573505376138</v>
@@ -6598,61 +6598,61 @@
         <v>750.8748194215243</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749883</v>
+        <v>637.6995017749882</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440235</v>
+        <v>543.3437276440234</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430013</v>
+        <v>451.1914993430011</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264618</v>
+        <v>360.0624171264616</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276533</v>
+        <v>247.6479607276532</v>
       </c>
       <c r="H31" t="n">
         <v>152.9908175569675</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933505</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667514</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962059</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353694</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.811824899272</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1880.811824899272</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167072</v>
+        <v>1712.787274970149</v>
       </c>
       <c r="U31" t="n">
-        <v>1568.628130167072</v>
+        <v>1479.419501465078</v>
       </c>
       <c r="V31" t="n">
         <v>1447.679123204789</v>
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
@@ -6722,28 +6722,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>388.8958536704856</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L33" t="n">
-        <v>618.8589595388348</v>
+        <v>1189.663494389109</v>
       </c>
       <c r="M33" t="n">
-        <v>1149.698165809328</v>
+        <v>1509.99881391881</v>
       </c>
       <c r="N33" t="n">
-        <v>1954.109744073479</v>
+        <v>1854.519469556428</v>
       </c>
       <c r="O33" t="n">
-        <v>2623.573505376138</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
         <v>221.529509210313</v>
@@ -6853,37 +6853,37 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6901,7 +6901,7 @@
         <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6950,37 +6950,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>417.5524109899876</v>
+        <v>2056.693778606512</v>
       </c>
       <c r="N36" t="n">
-        <v>1221.963989254138</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108323</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229664</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504503</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.529509210312</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649693</v>
@@ -7117,13 +7117,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U37" t="n">
         <v>1489.892037025262</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>263.5382936126482</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>263.5382936126482</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>323.6581146605669</v>
+        <v>1847.655958041207</v>
       </c>
       <c r="N39" t="n">
-        <v>1128.069692924718</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7333,25 +7333,25 @@
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7360,10 +7360,10 @@
         <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859417</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7476,28 +7476,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L42" t="n">
         <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>2056.693778606512</v>
       </c>
       <c r="N42" t="n">
         <v>2623.573505376138</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525397</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7597,7 +7597,7 @@
         <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025263</v>
@@ -7649,13 +7649,13 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
         <v>3183.709822619126</v>
@@ -7725,7 +7725,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
         <v>674.428562457161</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7810,22 +7810,22 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7834,7 +7834,7 @@
         <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025263</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X46" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9735,10 +9735,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9969,13 +9969,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10677,16 +10677,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>202.8611258896129</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11160,7 +11160,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>126.522310408713</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>126.930987480669</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23464,7 +23464,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>67.81046056929709</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>130.6844047393605</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>45.61309063909199</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>48.206445787836</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,19 +24130,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24184,7 +24184,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>158.4417733532928</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>33.98292404817687</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,16 +24364,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24382,7 +24382,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>201.0750597737033</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>122.3427178180449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>125.5862740966747</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>61.26914123350437</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24886,16 +24886,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>77.19486980261075</v>
+        <v>165.5114122175843</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>164208.3539728566</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="C2" t="n">
         <v>164208.3539728566</v>
@@ -26320,13 +26320,13 @@
         <v>164208.3539728566</v>
       </c>
       <c r="E2" t="n">
-        <v>156411.6238950835</v>
+        <v>156411.6238950834</v>
       </c>
       <c r="F2" t="n">
-        <v>156411.6238950835</v>
+        <v>156411.6238950834</v>
       </c>
       <c r="G2" t="n">
-        <v>156411.6238950835</v>
+        <v>156411.6238950836</v>
       </c>
       <c r="H2" t="n">
         <v>156411.6238950835</v>
@@ -26338,19 +26338,19 @@
         <v>156411.6238950836</v>
       </c>
       <c r="K2" t="n">
-        <v>162728.854938108</v>
+        <v>162728.8549381078</v>
       </c>
       <c r="L2" t="n">
+        <v>164208.3539728568</v>
+      </c>
+      <c r="M2" t="n">
         <v>164208.3539728567</v>
       </c>
-      <c r="M2" t="n">
-        <v>164208.3539728568</v>
-      </c>
       <c r="N2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728569</v>
       </c>
       <c r="O2" t="n">
-        <v>164208.3539728569</v>
+        <v>164208.353972857</v>
       </c>
       <c r="P2" t="n">
         <v>164208.3539728569</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284573</v>
+        <v>44162.60530284577</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086678</v>
+        <v>10342.90680086676</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284579</v>
       </c>
     </row>
     <row r="4">
@@ -26421,10 +26421,10 @@
         <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758461</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758694</v>
@@ -26433,31 +26433,31 @@
         <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758824</v>
+        <v>787.7936905758825</v>
       </c>
       <c r="I4" t="n">
-        <v>787.793690575921</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477244</v>
+        <v>18952.41620477242</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189631</v>
+        <v>23206.58093189627</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189627</v>
       </c>
       <c r="N4" t="n">
         <v>23206.58093189634</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189631</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189633</v>
+        <v>23206.58093189635</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26482,31 +26482,31 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002542</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97715.10582002542</v>
+      </c>
+      <c r="N5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.1058200254</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26525,43 +26525,43 @@
         <v>-57709.86327117187</v>
       </c>
       <c r="D6" t="n">
-        <v>-57709.86327117191</v>
+        <v>-57709.8632711719</v>
       </c>
       <c r="E6" t="n">
-        <v>-461523.5322211051</v>
+        <v>-461620.9913470774</v>
       </c>
       <c r="F6" t="n">
-        <v>63636.50425579101</v>
+        <v>63539.04512981878</v>
       </c>
       <c r="G6" t="n">
-        <v>63636.50425579103</v>
+        <v>63539.04512981889</v>
       </c>
       <c r="H6" t="n">
-        <v>63636.50425579098</v>
+        <v>63539.04512981883</v>
       </c>
       <c r="I6" t="n">
-        <v>63636.50425579102</v>
+        <v>63539.04512981894</v>
       </c>
       <c r="J6" t="n">
-        <v>-112786.714936802</v>
+        <v>-112884.174062774</v>
       </c>
       <c r="K6" t="n">
-        <v>2985.624900266994</v>
+        <v>2967.131162332432</v>
       </c>
       <c r="L6" t="n">
-        <v>32943.7604200682</v>
+        <v>32943.76042006834</v>
       </c>
       <c r="M6" t="n">
-        <v>-91514.34801290202</v>
+        <v>-91514.3480129021</v>
       </c>
       <c r="N6" t="n">
-        <v>43286.66722093508</v>
+        <v>43286.66722093524</v>
       </c>
       <c r="O6" t="n">
-        <v>43286.66722093521</v>
+        <v>43286.66722093525</v>
       </c>
       <c r="P6" t="n">
-        <v>-875.9380819105281</v>
+        <v>-875.9380819106154</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26750,34 +26750,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26817,10 +26817,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108347</v>
+        <v>12.92863350108345</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855723</v>
       </c>
     </row>
     <row r="3">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855721</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>97.54562306708239</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>201.7357246431509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,10 +27552,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27588,22 +27588,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>155.2846874514289</v>
+        <v>135.0011118388417</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>40.46807450747582</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>337.6297991990328</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>131.4589062730071</v>
       </c>
       <c r="V7" t="n">
-        <v>173.9978298770422</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>111.3643519613908</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>47.93901087271558</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,10 +28014,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28029,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>33.48052967248493</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>60.62365245226954</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855718</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31148,19 +31148,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31610,13 +31610,13 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>86.43447689993508</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392695</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31838,13 +31838,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>158.0642534345934</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -31856,10 +31856,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>171.3135836203298</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,10 +32312,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>58.66904626099313</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
@@ -32324,7 +32324,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>34.71740571127339</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32339,10 +32339,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,13 +32549,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>331.1308614851324</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -32567,19 +32567,19 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>171.3135836203301</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32789,34 +32789,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>58.66904626099313</v>
       </c>
       <c r="L24" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>371.8925761935062</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,25 +32935,25 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,37 +33023,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>158.0642534345934</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0.9375118102115607</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540898</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.1533596602003</v>
       </c>
       <c r="M30" t="n">
-        <v>212.6301886270622</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,10 +33409,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,37 +33421,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,40 +33494,40 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>288.1533596602003</v>
       </c>
       <c r="M33" t="n">
-        <v>212.6301886270622</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,10 +33646,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,37 +33658,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,40 +33731,40 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555639</v>
       </c>
       <c r="O36" t="n">
-        <v>340.85460907735</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,10 +33883,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,37 +33895,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946974</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,40 +33968,40 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.4090972701571</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
         <v>34.18755300444946</v>
@@ -34141,13 +34141,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927169</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647497</v>
@@ -34162,7 +34162,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555648</v>
+        <v>224.6051223555639</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34232,13 +34232,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34278,10 +34278,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
         <v>45.03122946298631</v>
@@ -34290,10 +34290,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
         <v>234.725964217132</v>
@@ -34302,7 +34302,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34314,13 +34314,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
         <v>34.18755300444946</v>
@@ -34369,7 +34369,7 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041472</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
         <v>526.7962671304441</v>
@@ -34378,13 +34378,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927169</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647497</v>
@@ -34399,7 +34399,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>224.6051223555644</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34469,13 +34469,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34515,10 +34515,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
         <v>45.03122946298631</v>
@@ -34527,10 +34527,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
         <v>234.725964217132</v>
@@ -34539,7 +34539,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34551,13 +34551,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,10 +35027,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35258,13 +35258,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>390.3502189581784</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
         <v>323.5710298279816</v>
@@ -35504,10 +35504,10 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>241.4090972701574</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>185.2928442992127</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
@@ -35972,7 +35972,7 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>382.7180679714936</v>
       </c>
       <c r="O18" t="n">
         <v>251.2660748322851</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>563.4168270087174</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
         <v>323.5710298279816</v>
@@ -36215,10 +36215,10 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>355.801944845937</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>185.2928442992127</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>623.1586510257913</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>390.3502189581784</v>
       </c>
       <c r="M27" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>348.9381740704318</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>520.4393251837853</v>
       </c>
       <c r="M30" t="n">
-        <v>536.2012184550438</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412269</v>
+        <v>67.71102679412274</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584678</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084858</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075298</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341609</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491601</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.586857240358</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043192</v>
+        <v>94.42895660043197</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>520.4393251837853</v>
       </c>
       <c r="M33" t="n">
-        <v>536.2012184550438</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157842</v>
       </c>
       <c r="O36" t="n">
-        <v>592.1206839096351</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M39" t="n">
-        <v>60.72709196759461</v>
+        <v>564.9801270981387</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37789,19 +37789,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081101</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157851</v>
+        <v>572.6057846157842</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303314</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109073</v>
@@ -38026,19 +38026,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>572.6057846157846</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M46" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
